--- a/Team-Data/2012-13/2-28-2012-13.xlsx
+++ b/Team-Data/2012-13/2-28-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -762,7 +829,7 @@
         <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -804,7 +871,7 @@
         <v>15</v>
       </c>
       <c r="AX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>7</v>
@@ -819,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -989,7 +1056,7 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>0.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>8</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
@@ -1165,13 +1232,13 @@
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
         <v>2</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1326,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="AP5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ5" t="n">
         <v>18</v>
@@ -1347,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>0.569</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
         <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L6" t="n">
         <v>4.8</v>
@@ -1424,13 +1491,13 @@
         <v>14</v>
       </c>
       <c r="N6" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O6" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P6" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q6" t="n">
         <v>0.779</v>
@@ -1439,55 +1506,55 @@
         <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T6" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U6" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V6" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="n">
         <v>92.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
         <v>20</v>
@@ -1508,16 +1575,16 @@
         <v>16</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT6" t="n">
         <v>6</v>
@@ -1532,13 +1599,13 @@
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1684,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-1.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1872,7 +1939,7 @@
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1896,7 +1963,7 @@
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>3.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH9" t="n">
         <v>8</v>
@@ -2057,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2291,7 @@
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>26</v>
@@ -2245,22 +2312,22 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
@@ -2418,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
         <v>2</v>
@@ -2436,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
         <v>28</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="n">
         <v>36</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.621</v>
+        <v>0.632</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2686,7 +2753,7 @@
         <v>35.1</v>
       </c>
       <c r="J13" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
         <v>0.434</v>
@@ -2695,7 +2762,7 @@
         <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N13" t="n">
         <v>0.354</v>
@@ -2710,13 +2777,13 @@
         <v>0.741</v>
       </c>
       <c r="R13" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S13" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T13" t="n">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="U13" t="n">
         <v>20.5</v>
@@ -2740,13 +2807,13 @@
         <v>21.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.90000000000001</v>
+        <v>94</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2755,7 +2822,7 @@
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
         <v>11</v>
@@ -2764,25 +2831,25 @@
         <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM13" t="n">
         <v>15</v>
       </c>
-      <c r="AM13" t="n">
-        <v>14</v>
-      </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO13" t="n">
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>20</v>
@@ -2791,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2800,10 +2867,10 @@
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" t="n">
         <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>0.695</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2871,16 +2938,16 @@
         <v>80.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
         <v>7.3</v>
       </c>
       <c r="M14" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N14" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O14" t="n">
         <v>16.7</v>
@@ -2889,22 +2956,22 @@
         <v>23.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.705</v>
+        <v>0.703</v>
       </c>
       <c r="R14" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S14" t="n">
         <v>30.3</v>
       </c>
       <c r="T14" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
         <v>9.9</v>
@@ -2916,7 +2983,7 @@
         <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
         <v>21.1</v>
@@ -2928,10 +2995,10 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
         <v>18</v>
@@ -2970,16 +3037,16 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT14" t="n">
         <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
         <v>20</v>
@@ -2994,7 +3061,7 @@
         <v>6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -3032,46 +3099,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>0.492</v>
+        <v>0.483</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
         <v>81.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L15" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M15" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="N15" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="O15" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P15" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
@@ -3080,10 +3147,10 @@
         <v>33.1</v>
       </c>
       <c r="T15" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U15" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
@@ -3095,22 +3162,22 @@
         <v>5.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z15" t="n">
         <v>18.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.4</v>
+        <v>102.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
         <v>16</v>
@@ -3140,28 +3207,28 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
         <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT15" t="n">
         <v>4</v>
       </c>
       <c r="AU15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3185,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -3474,10 +3541,10 @@
         <v>7.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>1</v>
@@ -3510,7 +3577,7 @@
         <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>15</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3726,7 @@
         <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
@@ -3668,7 +3735,7 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
         <v>9</v>
@@ -3692,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
         <v>24</v>
@@ -3701,7 +3768,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT18" t="n">
         <v>5</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.364</v>
+        <v>0.37</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J19" t="n">
         <v>81.5</v>
@@ -3787,34 +3854,34 @@
         <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="N19" t="n">
         <v>0.3</v>
       </c>
       <c r="O19" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>25.7</v>
+        <v>25.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R19" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S19" t="n">
         <v>30.5</v>
       </c>
       <c r="T19" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U19" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
         <v>8.199999999999999</v>
@@ -3829,16 +3896,16 @@
         <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
         <v>95.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.5</v>
+        <v>-2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
@@ -3853,7 +3920,7 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>18</v>
@@ -3871,28 +3938,28 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>12</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
@@ -4080,7 +4147,7 @@
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>3.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4211,7 +4278,7 @@
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
         <v>28</v>
@@ -4238,7 +4305,7 @@
         <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ21" t="n">
         <v>16</v>
@@ -4250,7 +4317,7 @@
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4411,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="AM22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN22" t="n">
         <v>2</v>
@@ -4435,7 +4502,7 @@
         <v>10</v>
       </c>
       <c r="AU22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4617,7 +4684,7 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
@@ -4635,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -4670,34 +4737,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="n">
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="n">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L24" t="n">
         <v>6.1</v>
       </c>
       <c r="M24" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="N24" t="n">
         <v>0.35</v>
@@ -4706,49 +4773,49 @@
         <v>12.1</v>
       </c>
       <c r="P24" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="R24" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S24" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V24" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W24" t="n">
         <v>7.1</v>
       </c>
       <c r="X24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>91.8</v>
+        <v>92</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE24" t="n">
         <v>22</v>
@@ -4757,7 +4824,7 @@
         <v>20</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
         <v>22</v>
@@ -4772,7 +4839,7 @@
         <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
@@ -4790,34 +4857,34 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
         <v>16</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ24" t="n">
         <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4972,7 +5039,7 @@
         <v>19</v>
       </c>
       <c r="AR25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS25" t="n">
         <v>21</v>
@@ -4990,13 +5057,13 @@
         <v>17</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5157,7 +5224,7 @@
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>19</v>
@@ -5166,7 +5233,7 @@
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW26" t="n">
         <v>26</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5318,7 +5385,7 @@
         <v>20</v>
       </c>
       <c r="AL27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5512,7 +5579,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG29" t="n">
         <v>21</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5852,7 +5919,7 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6119,7 @@
         <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6064,16 +6131,16 @@
         <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-28-2012-13</t>
+          <t>2013-02-28</t>
         </is>
       </c>
     </row>
